--- a/Code/Results/Cases/Case_2_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_109/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9813138118550062</v>
+        <v>1.011893977540996</v>
       </c>
       <c r="D2">
-        <v>1.003132369349058</v>
+        <v>1.018668824758436</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9571486934541107</v>
+        <v>1.010159802243678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036102353864957</v>
+        <v>1.025148036254686</v>
       </c>
       <c r="J2">
-        <v>1.004068159110682</v>
+        <v>1.017139824596926</v>
       </c>
       <c r="K2">
-        <v>1.014548237107533</v>
+        <v>1.021514355129701</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9692391560283059</v>
+        <v>1.013030835053877</v>
       </c>
       <c r="N2">
-        <v>1.005444674190141</v>
+        <v>1.009859167459851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9854359210192539</v>
+        <v>1.012742676172991</v>
       </c>
       <c r="D3">
-        <v>1.005899491240624</v>
+        <v>1.019252157866555</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9640322792427231</v>
+        <v>1.011653356366125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036795846641164</v>
+        <v>1.025225366442524</v>
       </c>
       <c r="J3">
-        <v>1.006331648239328</v>
+        <v>1.017622517048594</v>
       </c>
       <c r="K3">
-        <v>1.016457439409586</v>
+        <v>1.021904161118772</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9751470434285322</v>
+        <v>1.014326470288819</v>
       </c>
       <c r="N3">
-        <v>1.006201624073697</v>
+        <v>1.010019660046266</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9880449218997962</v>
+        <v>1.013291873734151</v>
       </c>
       <c r="D4">
-        <v>1.007652595382742</v>
+        <v>1.019629441121864</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9683746203970901</v>
+        <v>1.012619753616572</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037222968845591</v>
+        <v>1.025273937752916</v>
       </c>
       <c r="J4">
-        <v>1.007759463761853</v>
+        <v>1.017934273736274</v>
       </c>
       <c r="K4">
-        <v>1.017659529463609</v>
+        <v>1.022155522651951</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9788703411937287</v>
+        <v>1.015164318918161</v>
       </c>
       <c r="N4">
-        <v>1.006679009321092</v>
+        <v>1.010123282965547</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9891283156100593</v>
+        <v>1.013522763807725</v>
       </c>
       <c r="D5">
-        <v>1.008380929109711</v>
+        <v>1.019788008707978</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.970174739506411</v>
+        <v>1.013026023867652</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037397457692427</v>
+        <v>1.025294005665575</v>
       </c>
       <c r="J5">
-        <v>1.008351206106074</v>
+        <v>1.018065197691703</v>
       </c>
       <c r="K5">
-        <v>1.018157155357036</v>
+        <v>1.02226098642184</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9804129513468213</v>
+        <v>1.015516431242016</v>
       </c>
       <c r="N5">
-        <v>1.0068768293676</v>
+        <v>1.010166791679243</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9893094492300886</v>
+        <v>1.013561531689455</v>
       </c>
       <c r="D6">
-        <v>1.008502719018301</v>
+        <v>1.019814630392504</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9704755357269784</v>
+        <v>1.013094238377434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037426460451883</v>
+        <v>1.025297354535035</v>
       </c>
       <c r="J6">
-        <v>1.00845007156754</v>
+        <v>1.018087172266799</v>
       </c>
       <c r="K6">
-        <v>1.018240262104694</v>
+        <v>1.022278682002502</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9806706654319911</v>
+        <v>1.015575545568992</v>
       </c>
       <c r="N6">
-        <v>1.006909878521708</v>
+        <v>1.010174093792023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9880594503625235</v>
+        <v>1.013294958870013</v>
       </c>
       <c r="D7">
-        <v>1.007662361120873</v>
+        <v>1.019631560077241</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9683987717544514</v>
+        <v>1.012625182226292</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037225320179296</v>
+        <v>1.025274207282855</v>
       </c>
       <c r="J7">
-        <v>1.007767403709579</v>
+        <v>1.017936023693364</v>
       </c>
       <c r="K7">
-        <v>1.017666208845883</v>
+        <v>1.022156932684474</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9788910412122692</v>
+        <v>1.015169024324061</v>
       </c>
       <c r="N7">
-        <v>1.006681663763761</v>
+        <v>1.010123864544884</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9827192893212334</v>
+        <v>1.012180792168296</v>
       </c>
       <c r="D8">
-        <v>1.004075453661339</v>
+        <v>1.018865999953535</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9594990353997401</v>
+        <v>1.010664565241637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036341261345555</v>
+        <v>1.025174473769727</v>
       </c>
       <c r="J8">
-        <v>1.004840926231906</v>
+        <v>1.017303072203556</v>
       </c>
       <c r="K8">
-        <v>1.015200501890976</v>
+        <v>1.021646271477642</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9712570795739641</v>
+        <v>1.013468809773028</v>
       </c>
       <c r="N8">
-        <v>1.005703120396491</v>
+        <v>1.009913453503067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9728377377600187</v>
+        <v>1.010217757752947</v>
       </c>
       <c r="D9">
-        <v>0.9974546356214058</v>
+        <v>1.017515711760702</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9428933969350767</v>
+        <v>1.007209258081936</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03461298518774</v>
+        <v>1.024987515836221</v>
       </c>
       <c r="J9">
-        <v>0.9993875245918575</v>
+        <v>1.016183318709157</v>
       </c>
       <c r="K9">
-        <v>1.010589145020621</v>
+        <v>1.020739790645921</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9569863240571537</v>
+        <v>1.01046870692375</v>
       </c>
       <c r="N9">
-        <v>1.003878955523163</v>
+        <v>1.009540953218389</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9658949477012509</v>
+        <v>1.008909271832444</v>
       </c>
       <c r="D10">
-        <v>0.9928181060495819</v>
+        <v>1.016614724042046</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9310987596555081</v>
+        <v>1.004905131989925</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033338693903721</v>
+        <v>1.024855359194961</v>
       </c>
       <c r="J10">
-        <v>0.9955302370964744</v>
+        <v>1.015433863775249</v>
       </c>
       <c r="K10">
-        <v>1.00731825395481</v>
+        <v>1.020131044436919</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9468344221018042</v>
+        <v>1.008465636153917</v>
       </c>
       <c r="N10">
-        <v>1.002588421553462</v>
+        <v>1.0092914641762</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9627949676350355</v>
+        <v>1.008342735191567</v>
       </c>
       <c r="D11">
-        <v>0.9907524572174824</v>
+        <v>1.016224410062187</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9257932784091176</v>
+        <v>1.003907216480461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032756065942175</v>
+        <v>1.024796355209481</v>
       </c>
       <c r="J11">
-        <v>0.993801825292609</v>
+        <v>1.015108643503399</v>
       </c>
       <c r="K11">
-        <v>1.005850901509798</v>
+        <v>1.019866407273273</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9422648140286041</v>
+        <v>1.007597518317882</v>
       </c>
       <c r="N11">
-        <v>1.002010126414319</v>
+        <v>1.009183159881577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.961628528631821</v>
+        <v>1.008132305448103</v>
       </c>
       <c r="D12">
-        <v>0.9899759816361904</v>
+        <v>1.016079403925064</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.923790229156494</v>
+        <v>1.003536508538471</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032534837958643</v>
+        <v>1.024774171507054</v>
       </c>
       <c r="J12">
-        <v>0.9931505454431413</v>
+        <v>1.014987736957245</v>
       </c>
       <c r="K12">
-        <v>1.005297779194976</v>
+        <v>1.019767952547816</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9405391915595656</v>
+        <v>1.007274939542145</v>
       </c>
       <c r="N12">
-        <v>1.001792220972905</v>
+        <v>1.00914288977446</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9618794262876104</v>
+        <v>1.008177443013575</v>
       </c>
       <c r="D13">
-        <v>0.9901429629994363</v>
+        <v>1.016110509401744</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9242213985743799</v>
+        <v>1.003616028445826</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032582513019059</v>
+        <v>1.024778942063459</v>
       </c>
       <c r="J13">
-        <v>0.9932906757737422</v>
+        <v>1.015013676583188</v>
       </c>
       <c r="K13">
-        <v>1.005416798647179</v>
+        <v>1.019789078504398</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9409106599032672</v>
+        <v>1.007344139343339</v>
       </c>
       <c r="N13">
-        <v>1.001839105720685</v>
+        <v>1.009151529706384</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9626988602070041</v>
+        <v>1.008325340855406</v>
       </c>
       <c r="D14">
-        <v>0.9906884641928393</v>
+        <v>1.016212424337579</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9256283816583954</v>
+        <v>1.003876574447558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032737878468421</v>
+        <v>1.024794526942477</v>
       </c>
       <c r="J14">
-        <v>0.9937481826635243</v>
+        <v>1.015098651477161</v>
       </c>
       <c r="K14">
-        <v>1.00580534766278</v>
+        <v>1.019858272168975</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9421227635202302</v>
+        <v>1.007570856354658</v>
       </c>
       <c r="N14">
-        <v>1.001992178602164</v>
+        <v>1.009179831979322</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9632017290452717</v>
+        <v>1.008416466556213</v>
       </c>
       <c r="D15">
-        <v>0.9910233308337025</v>
+        <v>1.016275214056761</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9264909011811413</v>
+        <v>1.004037100276722</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032832960701797</v>
+        <v>1.024804093930987</v>
       </c>
       <c r="J15">
-        <v>0.9940288225784326</v>
+        <v>1.01515099336955</v>
       </c>
       <c r="K15">
-        <v>1.006043661473538</v>
+        <v>1.01990088391865</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9428657662530776</v>
+        <v>1.007710527991528</v>
       </c>
       <c r="N15">
-        <v>1.002086075487931</v>
+        <v>1.009197264503954</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9660986347179217</v>
+        <v>1.008946871999846</v>
       </c>
       <c r="D16">
-        <v>0.9929539337228585</v>
+        <v>1.016640624176893</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.931446476361336</v>
+        <v>1.004971355377168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033376696110241</v>
+        <v>1.024859237635209</v>
       </c>
       <c r="J16">
-        <v>0.9956436762252283</v>
+        <v>1.015455432806856</v>
       </c>
       <c r="K16">
-        <v>1.007414527532554</v>
+        <v>1.020148585534122</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9471338518988364</v>
+        <v>1.008523233544716</v>
       </c>
       <c r="N16">
-        <v>1.002626376136363</v>
+        <v>1.009298646211773</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9678900955309837</v>
+        <v>1.009279593900241</v>
       </c>
       <c r="D17">
-        <v>0.9941490907716898</v>
+        <v>1.016869788679458</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9345001604567023</v>
+        <v>1.005557327770815</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033709386085644</v>
+        <v>1.024893351686766</v>
       </c>
       <c r="J17">
-        <v>0.9966406962609389</v>
+        <v>1.015646211935092</v>
       </c>
       <c r="K17">
-        <v>1.008260491287007</v>
+        <v>1.020303682483009</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9497631353832658</v>
+        <v>1.00903281145397</v>
       </c>
       <c r="N17">
-        <v>1.002959958359237</v>
+        <v>1.009362167006633</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9689260472141317</v>
+        <v>1.00947366941784</v>
       </c>
       <c r="D18">
-        <v>0.9948406445981924</v>
+        <v>1.017003438992152</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9362623747029166</v>
+        <v>1.005899095310149</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033900474761475</v>
+        <v>1.024913078138886</v>
       </c>
       <c r="J18">
-        <v>0.997216665935876</v>
+        <v>1.015757422496614</v>
       </c>
       <c r="K18">
-        <v>1.008749033511862</v>
+        <v>1.020394046951582</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9512801439107142</v>
+        <v>1.009329965171311</v>
       </c>
       <c r="N18">
-        <v>1.003152663726391</v>
+        <v>1.009399191179697</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9692777830374358</v>
+        <v>1.0095398449041</v>
       </c>
       <c r="D19">
-        <v>0.9950755174247022</v>
+        <v>1.017049007303628</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9368601034757417</v>
+        <v>1.006015625944765</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033965133515957</v>
+        <v>1.02491977521664</v>
       </c>
       <c r="J19">
-        <v>0.9974121263202375</v>
+        <v>1.015795330941595</v>
       </c>
       <c r="K19">
-        <v>1.008914795622719</v>
+        <v>1.020424841762007</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9517946493543249</v>
+        <v>1.009431274424335</v>
       </c>
       <c r="N19">
-        <v>1.003218059514267</v>
+        <v>1.009411810980158</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.967698823462134</v>
+        <v>1.009243895525918</v>
       </c>
       <c r="D20">
-        <v>0.9940214403214059</v>
+        <v>1.016845203296628</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9341745065299781</v>
+        <v>1.005494460612205</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033673999394427</v>
+        <v>1.024889709328952</v>
       </c>
       <c r="J20">
-        <v>0.9965343057870097</v>
+        <v>1.015625750139319</v>
       </c>
       <c r="K20">
-        <v>1.008170236477426</v>
+        <v>1.020287052487381</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9494827708439602</v>
+        <v>1.008978146301818</v>
       </c>
       <c r="N20">
-        <v>1.002924362508276</v>
+        <v>1.009355354559869</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9624579780964011</v>
+        <v>1.008281788427032</v>
       </c>
       <c r="D21">
-        <v>0.9905280858390595</v>
+        <v>1.016182413643327</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9252149754594956</v>
+        <v>1.003799851229344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03269226163011</v>
+        <v>1.024789944951839</v>
       </c>
       <c r="J21">
-        <v>0.9936137187185899</v>
+        <v>1.015073631393566</v>
       </c>
       <c r="K21">
-        <v>1.005691156304006</v>
+        <v>1.019837900681424</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9417666280776333</v>
+        <v>1.007504097228222</v>
       </c>
       <c r="N21">
-        <v>1.001947189530648</v>
+        <v>1.009171498798461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9590757463923103</v>
+        <v>1.00767691521161</v>
       </c>
       <c r="D22">
-        <v>0.9882781620874523</v>
+        <v>1.015765540670806</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.919393063077963</v>
+        <v>1.002734162211133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032047050068652</v>
+        <v>1.024725674535363</v>
       </c>
       <c r="J22">
-        <v>0.9917234906966947</v>
+        <v>1.014725883492043</v>
       </c>
       <c r="K22">
-        <v>1.004085463086533</v>
+        <v>1.019554594717462</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9367503866732607</v>
+        <v>1.006576600730872</v>
       </c>
       <c r="N22">
-        <v>1.001314762726117</v>
+        <v>1.009055663804114</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9608773068007446</v>
+        <v>1.007997565923</v>
       </c>
       <c r="D23">
-        <v>0.9894761365341177</v>
+        <v>1.015986546901795</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9224981895032277</v>
+        <v>1.003299126926792</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032391803032947</v>
+        <v>1.024759891801555</v>
       </c>
       <c r="J23">
-        <v>0.9927308398780278</v>
+        <v>1.014910288918493</v>
       </c>
       <c r="K23">
-        <v>1.004941275445514</v>
+        <v>1.01970486633495</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.939425998798011</v>
+        <v>1.007068352425448</v>
       </c>
       <c r="N23">
-        <v>1.001651796509526</v>
+        <v>1.009117092620256</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9677852787535275</v>
+        <v>1.009260026070775</v>
       </c>
       <c r="D24">
-        <v>0.9940791372151484</v>
+        <v>1.016856312426878</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9343217138873379</v>
+        <v>1.005522867636326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033689998262723</v>
+        <v>1.024891355684189</v>
       </c>
       <c r="J24">
-        <v>0.9965823962529557</v>
+        <v>1.015634996153087</v>
       </c>
       <c r="K24">
-        <v>1.008211033834834</v>
+        <v>1.020294567178502</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9496095066750813</v>
+        <v>1.009002847359953</v>
       </c>
       <c r="N24">
-        <v>1.002940452499537</v>
+        <v>1.009358432892972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9754519655956794</v>
+        <v>1.010725214918578</v>
       </c>
       <c r="D25">
-        <v>0.9992038927354643</v>
+        <v>1.017864938254462</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9473057852939356</v>
+        <v>1.008102620443033</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035080718342981</v>
+        <v>1.025037175658474</v>
       </c>
       <c r="J25">
-        <v>1.000834683410937</v>
+        <v>1.016473323234465</v>
       </c>
       <c r="K25">
-        <v>1.011814579827652</v>
+        <v>1.020974920064893</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9607811754642738</v>
+        <v>1.011244816904892</v>
       </c>
       <c r="N25">
-        <v>1.004363090893554</v>
+        <v>1.009637457646758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_109/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011893977540996</v>
+        <v>0.981313811855006</v>
       </c>
       <c r="D2">
-        <v>1.018668824758436</v>
+        <v>1.003132369349058</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.010159802243678</v>
+        <v>0.9571486934541107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025148036254686</v>
+        <v>1.036102353864957</v>
       </c>
       <c r="J2">
-        <v>1.017139824596926</v>
+        <v>1.004068159110682</v>
       </c>
       <c r="K2">
-        <v>1.021514355129701</v>
+        <v>1.014548237107533</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.013030835053877</v>
+        <v>0.969239156028306</v>
       </c>
       <c r="N2">
-        <v>1.009859167459851</v>
+        <v>1.005444674190141</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012742676172991</v>
+        <v>0.9854359210192543</v>
       </c>
       <c r="D3">
-        <v>1.019252157866555</v>
+        <v>1.005899491240624</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.011653356366125</v>
+        <v>0.9640322792427236</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025225366442524</v>
+        <v>1.036795846641165</v>
       </c>
       <c r="J3">
-        <v>1.017622517048594</v>
+        <v>1.006331648239328</v>
       </c>
       <c r="K3">
-        <v>1.021904161118772</v>
+        <v>1.016457439409586</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.014326470288819</v>
+        <v>0.9751470434285328</v>
       </c>
       <c r="N3">
-        <v>1.010019660046266</v>
+        <v>1.006201624073697</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013291873734151</v>
+        <v>0.9880449218997966</v>
       </c>
       <c r="D4">
-        <v>1.019629441121864</v>
+        <v>1.007652595382743</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.012619753616572</v>
+        <v>0.96837462039709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025273937752916</v>
+        <v>1.037222968845591</v>
       </c>
       <c r="J4">
-        <v>1.017934273736274</v>
+        <v>1.007759463761853</v>
       </c>
       <c r="K4">
-        <v>1.022155522651951</v>
+        <v>1.017659529463609</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.015164318918161</v>
+        <v>0.9788703411937286</v>
       </c>
       <c r="N4">
-        <v>1.010123282965547</v>
+        <v>1.006679009321092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013522763807725</v>
+        <v>0.9891283156100591</v>
       </c>
       <c r="D5">
-        <v>1.019788008707978</v>
+        <v>1.008380929109711</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.013026023867652</v>
+        <v>0.970174739506411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025294005665575</v>
+        <v>1.037397457692426</v>
       </c>
       <c r="J5">
-        <v>1.018065197691703</v>
+        <v>1.008351206106074</v>
       </c>
       <c r="K5">
-        <v>1.02226098642184</v>
+        <v>1.018157155357035</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.015516431242016</v>
+        <v>0.9804129513468213</v>
       </c>
       <c r="N5">
-        <v>1.010166791679243</v>
+        <v>1.0068768293676</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013561531689455</v>
+        <v>0.9893094492300882</v>
       </c>
       <c r="D6">
-        <v>1.019814630392504</v>
+        <v>1.008502719018301</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.013094238377434</v>
+        <v>0.9704755357269774</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025297354535035</v>
+        <v>1.037426460451884</v>
       </c>
       <c r="J6">
-        <v>1.018087172266799</v>
+        <v>1.00845007156754</v>
       </c>
       <c r="K6">
-        <v>1.022278682002502</v>
+        <v>1.018240262104694</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.015575545568992</v>
+        <v>0.9806706654319904</v>
       </c>
       <c r="N6">
-        <v>1.010174093792023</v>
+        <v>1.006909878521708</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013294958870013</v>
+        <v>0.9880594503625236</v>
       </c>
       <c r="D7">
-        <v>1.019631560077241</v>
+        <v>1.007662361120873</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.012625182226292</v>
+        <v>0.9683987717544515</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025274207282855</v>
+        <v>1.037225320179295</v>
       </c>
       <c r="J7">
-        <v>1.017936023693364</v>
+        <v>1.007767403709578</v>
       </c>
       <c r="K7">
-        <v>1.022156932684474</v>
+        <v>1.017666208845883</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.015169024324061</v>
+        <v>0.9788910412122693</v>
       </c>
       <c r="N7">
-        <v>1.010123864544884</v>
+        <v>1.006681663763761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012180792168296</v>
+        <v>0.9827192893212336</v>
       </c>
       <c r="D8">
-        <v>1.018865999953535</v>
+        <v>1.004075453661339</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.010664565241637</v>
+        <v>0.9594990353997397</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025174473769727</v>
+        <v>1.036341261345555</v>
       </c>
       <c r="J8">
-        <v>1.017303072203556</v>
+        <v>1.004840926231906</v>
       </c>
       <c r="K8">
-        <v>1.021646271477642</v>
+        <v>1.015200501890976</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.013468809773028</v>
+        <v>0.9712570795739638</v>
       </c>
       <c r="N8">
-        <v>1.009913453503067</v>
+        <v>1.005703120396491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010217757752947</v>
+        <v>0.9728377377600189</v>
       </c>
       <c r="D9">
-        <v>1.017515711760702</v>
+        <v>0.9974546356214057</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.007209258081936</v>
+        <v>0.9428933969350768</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024987515836221</v>
+        <v>1.03461298518774</v>
       </c>
       <c r="J9">
-        <v>1.016183318709157</v>
+        <v>0.9993875245918575</v>
       </c>
       <c r="K9">
-        <v>1.020739790645921</v>
+        <v>1.01058914502062</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.01046870692375</v>
+        <v>0.9569863240571537</v>
       </c>
       <c r="N9">
-        <v>1.009540953218389</v>
+        <v>1.003878955523163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008909271832444</v>
+        <v>0.9658949477012509</v>
       </c>
       <c r="D10">
-        <v>1.016614724042046</v>
+        <v>0.9928181060495814</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.004905131989925</v>
+        <v>0.9310987596555083</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024855359194961</v>
+        <v>1.033338693903721</v>
       </c>
       <c r="J10">
-        <v>1.015433863775249</v>
+        <v>0.9955302370964743</v>
       </c>
       <c r="K10">
-        <v>1.020131044436919</v>
+        <v>1.00731825395481</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.008465636153917</v>
+        <v>0.9468344221018044</v>
       </c>
       <c r="N10">
-        <v>1.0092914641762</v>
+        <v>1.002588421553462</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008342735191567</v>
+        <v>0.9627949676350356</v>
       </c>
       <c r="D11">
-        <v>1.016224410062187</v>
+        <v>0.9907524572174826</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.003907216480461</v>
+        <v>0.9257932784091184</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024796355209481</v>
+        <v>1.032756065942175</v>
       </c>
       <c r="J11">
-        <v>1.015108643503399</v>
+        <v>0.9938018252926092</v>
       </c>
       <c r="K11">
-        <v>1.019866407273273</v>
+        <v>1.005850901509798</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.007597518317882</v>
+        <v>0.9422648140286048</v>
       </c>
       <c r="N11">
-        <v>1.009183159881577</v>
+        <v>1.002010126414318</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008132305448103</v>
+        <v>0.9616285286318211</v>
       </c>
       <c r="D12">
-        <v>1.016079403925064</v>
+        <v>0.9899759816361907</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.003536508538471</v>
+        <v>0.9237902291564941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024774171507054</v>
+        <v>1.032534837958643</v>
       </c>
       <c r="J12">
-        <v>1.014987736957245</v>
+        <v>0.9931505454431415</v>
       </c>
       <c r="K12">
-        <v>1.019767952547816</v>
+        <v>1.005297779194976</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.007274939542145</v>
+        <v>0.9405391915595657</v>
       </c>
       <c r="N12">
-        <v>1.00914288977446</v>
+        <v>1.001792220972905</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008177443013575</v>
+        <v>0.9618794262876107</v>
       </c>
       <c r="D13">
-        <v>1.016110509401744</v>
+        <v>0.9901429629994366</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.003616028445826</v>
+        <v>0.9242213985743807</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024778942063459</v>
+        <v>1.032582513019059</v>
       </c>
       <c r="J13">
-        <v>1.015013676583188</v>
+        <v>0.9932906757737424</v>
       </c>
       <c r="K13">
-        <v>1.019789078504398</v>
+        <v>1.00541679864718</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.007344139343339</v>
+        <v>0.9409106599032679</v>
       </c>
       <c r="N13">
-        <v>1.009151529706384</v>
+        <v>1.001839105720685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008325340855406</v>
+        <v>0.962698860207004</v>
       </c>
       <c r="D14">
-        <v>1.016212424337579</v>
+        <v>0.9906884641928388</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.003876574447558</v>
+        <v>0.9256283816583956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024794526942477</v>
+        <v>1.032737878468421</v>
       </c>
       <c r="J14">
-        <v>1.015098651477161</v>
+        <v>0.993748182663524</v>
       </c>
       <c r="K14">
-        <v>1.019858272168975</v>
+        <v>1.00580534766278</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.007570856354658</v>
+        <v>0.9421227635202301</v>
       </c>
       <c r="N14">
-        <v>1.009179831979322</v>
+        <v>1.001992178602164</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008416466556213</v>
+        <v>0.9632017290452712</v>
       </c>
       <c r="D15">
-        <v>1.016275214056761</v>
+        <v>0.9910233308337023</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.004037100276722</v>
+        <v>0.926490901181141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024804093930987</v>
+        <v>1.032832960701797</v>
       </c>
       <c r="J15">
-        <v>1.01515099336955</v>
+        <v>0.9940288225784323</v>
       </c>
       <c r="K15">
-        <v>1.01990088391865</v>
+        <v>1.006043661473538</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.007710527991528</v>
+        <v>0.9428657662530773</v>
       </c>
       <c r="N15">
-        <v>1.009197264503954</v>
+        <v>1.002086075487931</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008946871999846</v>
+        <v>0.9660986347179221</v>
       </c>
       <c r="D16">
-        <v>1.016640624176893</v>
+        <v>0.9929539337228589</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.004971355377168</v>
+        <v>0.931446476361337</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024859237635209</v>
+        <v>1.033376696110241</v>
       </c>
       <c r="J16">
-        <v>1.015455432806856</v>
+        <v>0.9956436762252286</v>
       </c>
       <c r="K16">
-        <v>1.020148585534122</v>
+        <v>1.007414527532554</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.008523233544716</v>
+        <v>0.9471338518988373</v>
       </c>
       <c r="N16">
-        <v>1.009298646211773</v>
+        <v>1.002626376136363</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009279593900241</v>
+        <v>0.967890095530984</v>
       </c>
       <c r="D17">
-        <v>1.016869788679458</v>
+        <v>0.99414909077169</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.005557327770815</v>
+        <v>0.9345001604567025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024893351686766</v>
+        <v>1.033709386085644</v>
       </c>
       <c r="J17">
-        <v>1.015646211935092</v>
+        <v>0.9966406962609392</v>
       </c>
       <c r="K17">
-        <v>1.020303682483009</v>
+        <v>1.008260491287008</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.00903281145397</v>
+        <v>0.949763135383266</v>
       </c>
       <c r="N17">
-        <v>1.009362167006633</v>
+        <v>1.002959958359237</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00947366941784</v>
+        <v>0.9689260472141323</v>
       </c>
       <c r="D18">
-        <v>1.017003438992152</v>
+        <v>0.9948406445981933</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.005899095310149</v>
+        <v>0.9362623747029177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024913078138886</v>
+        <v>1.033900474761475</v>
       </c>
       <c r="J18">
-        <v>1.015757422496614</v>
+        <v>0.9972166659358769</v>
       </c>
       <c r="K18">
-        <v>1.020394046951582</v>
+        <v>1.008749033511863</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.009329965171311</v>
+        <v>0.9512801439107152</v>
       </c>
       <c r="N18">
-        <v>1.009399191179697</v>
+        <v>1.003152663726391</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0095398449041</v>
+        <v>0.9692777830374359</v>
       </c>
       <c r="D19">
-        <v>1.017049007303628</v>
+        <v>0.9950755174247021</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.006015625944765</v>
+        <v>0.9368601034757418</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02491977521664</v>
+        <v>1.033965133515957</v>
       </c>
       <c r="J19">
-        <v>1.015795330941595</v>
+        <v>0.9974121263202376</v>
       </c>
       <c r="K19">
-        <v>1.020424841762007</v>
+        <v>1.008914795622719</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.009431274424335</v>
+        <v>0.951794649354325</v>
       </c>
       <c r="N19">
-        <v>1.009411810980158</v>
+        <v>1.003218059514267</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009243895525918</v>
+        <v>0.9676988234621341</v>
       </c>
       <c r="D20">
-        <v>1.016845203296628</v>
+        <v>0.9940214403214063</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.005494460612205</v>
+        <v>0.9341745065299785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024889709328952</v>
+        <v>1.033673999394428</v>
       </c>
       <c r="J20">
-        <v>1.015625750139319</v>
+        <v>0.9965343057870099</v>
       </c>
       <c r="K20">
-        <v>1.020287052487381</v>
+        <v>1.008170236477426</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.008978146301818</v>
+        <v>0.9494827708439607</v>
       </c>
       <c r="N20">
-        <v>1.009355354559869</v>
+        <v>1.002924362508276</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008281788427032</v>
+        <v>0.9624579780964014</v>
       </c>
       <c r="D21">
-        <v>1.016182413643327</v>
+        <v>0.9905280858390595</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.003799851229344</v>
+        <v>0.9252149754594956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024789944951839</v>
+        <v>1.03269226163011</v>
       </c>
       <c r="J21">
-        <v>1.015073631393566</v>
+        <v>0.9936137187185901</v>
       </c>
       <c r="K21">
-        <v>1.019837900681424</v>
+        <v>1.005691156304006</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.007504097228222</v>
+        <v>0.9417666280776334</v>
       </c>
       <c r="N21">
-        <v>1.009171498798461</v>
+        <v>1.001947189530648</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00767691521161</v>
+        <v>0.9590757463923109</v>
       </c>
       <c r="D22">
-        <v>1.015765540670806</v>
+        <v>0.9882781620874527</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.002734162211133</v>
+        <v>0.919393063077963</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024725674535363</v>
+        <v>1.032047050068651</v>
       </c>
       <c r="J22">
-        <v>1.014725883492043</v>
+        <v>0.991723490696695</v>
       </c>
       <c r="K22">
-        <v>1.019554594717462</v>
+        <v>1.004085463086534</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.006576600730872</v>
+        <v>0.9367503866732608</v>
       </c>
       <c r="N22">
-        <v>1.009055663804114</v>
+        <v>1.001314762726117</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007997565923</v>
+        <v>0.9608773068007458</v>
       </c>
       <c r="D23">
-        <v>1.015986546901795</v>
+        <v>0.9894761365341186</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.003299126926792</v>
+        <v>0.9224981895032286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024759891801555</v>
+        <v>1.032391803032948</v>
       </c>
       <c r="J23">
-        <v>1.014910288918493</v>
+        <v>0.9927308398780287</v>
       </c>
       <c r="K23">
-        <v>1.01970486633495</v>
+        <v>1.004941275445515</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.007068352425448</v>
+        <v>0.939425998798012</v>
       </c>
       <c r="N23">
-        <v>1.009117092620256</v>
+        <v>1.001651796509526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009260026070775</v>
+        <v>0.9677852787535273</v>
       </c>
       <c r="D24">
-        <v>1.016856312426878</v>
+        <v>0.9940791372151483</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.005522867636326</v>
+        <v>0.9343217138873376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024891355684189</v>
+        <v>1.033689998262722</v>
       </c>
       <c r="J24">
-        <v>1.015634996153087</v>
+        <v>0.9965823962529557</v>
       </c>
       <c r="K24">
-        <v>1.020294567178502</v>
+        <v>1.008211033834834</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.009002847359953</v>
+        <v>0.9496095066750811</v>
       </c>
       <c r="N24">
-        <v>1.009358432892972</v>
+        <v>1.002940452499538</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010725214918578</v>
+        <v>0.9754519655956785</v>
       </c>
       <c r="D25">
-        <v>1.017864938254462</v>
+        <v>0.9992038927354638</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.008102620443033</v>
+        <v>0.9473057852939353</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025037175658474</v>
+        <v>1.035080718342981</v>
       </c>
       <c r="J25">
-        <v>1.016473323234465</v>
+        <v>1.000834683410937</v>
       </c>
       <c r="K25">
-        <v>1.020974920064893</v>
+        <v>1.011814579827652</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.011244816904892</v>
+        <v>0.9607811754642734</v>
       </c>
       <c r="N25">
-        <v>1.009637457646758</v>
+        <v>1.004363090893554</v>
       </c>
     </row>
   </sheetData>
